--- a/Recycling/Met_rec_tech/metrec_tech_Max_hist_Avg.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Max_hist_Avg.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.169705936274782E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.551037554247954E-08</v>
+      </c>
+      <c r="E7">
         <v>1.859322183917341</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.641690471845607E-10</v>
-      </c>
-      <c r="F7">
-        <v>3.551037554247954E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.09909787433570616</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.476145265638324</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>305645.1626255596</v>
+      </c>
+      <c r="E7">
         <v>877290.2262685535</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53700.07508543988</v>
-      </c>
-      <c r="F7">
-        <v>305645.1626255596</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>46757.68263870144</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.37837319771802</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>375258.4567031891</v>
+      </c>
+      <c r="E7">
         <v>904337.7742667451</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>65751.5182333539</v>
-      </c>
-      <c r="F7">
-        <v>375258.4567031891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48199.25878714852</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.51712599390376E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.162249065101944E-07</v>
+      </c>
+      <c r="E7">
         <v>3.996844135757343</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.395970586286781E-09</v>
-      </c>
-      <c r="F7">
-        <v>6.162249065101944E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.2130231980937272</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.40211626829733E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>8.699087230192051E-06</v>
+      </c>
+      <c r="E7">
         <v>8.860487144490735</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.883017754700217E-08</v>
-      </c>
-      <c r="F7">
-        <v>8.699087230192051E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.4722449122550337</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.563024411979345E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>8.425507060440381E-05</v>
+      </c>
+      <c r="E7">
         <v>16.38068628176166</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.902440986226467E-07</v>
-      </c>
-      <c r="F7">
-        <v>8.425507060440381E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.8730553557224744</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.5674518978247E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0007447307156921688</v>
+      </c>
+      <c r="E7">
         <v>32.59428930881386</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.930491039037517E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0007447307156921688</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.737205533245056</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.262980096274305E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.005363251787348367</v>
+      </c>
+      <c r="E7">
         <v>60.85885064187315</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.001529454231067E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.005363251787348367</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3.243645875518674</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.24458102677876E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0278507302349132</v>
+      </c>
+      <c r="E7">
         <v>92.34839430375573</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0004589757878238475</v>
-      </c>
-      <c r="F7">
-        <v>0.0278507302349132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4.921970841297008</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.324951066025533E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1522566937459953</v>
+      </c>
+      <c r="E7">
         <v>162.8777092337169</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.002740045028816928</v>
-      </c>
-      <c r="F7">
-        <v>0.1522566937459953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8.681031669145149</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.342182982201408E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.7627502533549619</v>
+      </c>
+      <c r="E7">
         <v>285.3738070533011</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01483875017078098</v>
-      </c>
-      <c r="F7">
-        <v>0.7627502533549619</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>15.20981028177057</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.169026232798444E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.553029516741374</v>
+      </c>
+      <c r="E7">
         <v>496.5709745536915</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.07406290773781087</v>
-      </c>
-      <c r="F7">
-        <v>3.553029516741374</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>26.4661651760664</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.818610949840451E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>13.77369566520414</v>
+      </c>
+      <c r="E7">
         <v>759.3965270965764</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3052800084290063</v>
-      </c>
-      <c r="F7">
-        <v>13.77369566520414</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>40.47420197753835</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0001966845256696951</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53.22280431347261</v>
+      </c>
+      <c r="E7">
         <v>1212.388649365892</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.246082206663474</v>
-      </c>
-      <c r="F7">
-        <v>53.22280431347261</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64.61770803367067</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0007558568201931114</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>194.6329497610212</v>
+      </c>
+      <c r="E7">
         <v>1907.984207214403</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.788682440679618</v>
-      </c>
-      <c r="F7">
-        <v>194.6329497610212</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>101.6914555403651</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.002331298355887303</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>572.9048208736746</v>
+      </c>
+      <c r="E7">
         <v>2511.982936450786</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14.76979131837505</v>
-      </c>
-      <c r="F7">
-        <v>572.9048208736746</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>133.8832890410481</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.007760016240633911</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1816.134560391434</v>
+      </c>
+      <c r="E7">
         <v>3717.734212162349</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49.16308554498233</v>
-      </c>
-      <c r="F7">
-        <v>1816.134560391434</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>198.1472393311683</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.02340772191046674</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5144.517448855167</v>
+      </c>
+      <c r="E7">
         <v>5231.162781778543</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>148.2981219383924</v>
-      </c>
-      <c r="F7">
-        <v>5144.517448855167</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>278.809727793448</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.06414710132915202</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>12702.76674756564</v>
+      </c>
+      <c r="E7">
         <v>7196.647131924023</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>406.3998492160537</v>
-      </c>
-      <c r="F7">
-        <v>12702.76674756564</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>383.5658173105152</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1499213193042011</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>24459.89867092674</v>
+      </c>
+      <c r="E7">
         <v>9692.207603469196</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>949.8169098376721</v>
-      </c>
-      <c r="F7">
-        <v>24459.89867092674</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>516.5738242850254</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2624680397045185</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32128.63430783137</v>
+      </c>
+      <c r="E7">
         <v>12792.14234125177</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1662.849443696907</v>
-      </c>
-      <c r="F7">
-        <v>32128.63430783137</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>681.7936800748621</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.283773115447782</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>31314.6299298677</v>
+      </c>
+      <c r="E7">
         <v>16560.90415474241</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1797.826385603774</v>
-      </c>
-      <c r="F7">
-        <v>31314.6299298677</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>882.6605808330937</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>4.079644092419472E-06</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.174362577405594E-07</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1752772074300097</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30421.31917795831</v>
+      </c>
+      <c r="E7">
         <v>21046.63989375434</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1110.457513973353</v>
-      </c>
-      <c r="F7">
-        <v>30421.31917795831</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1121.740650125459</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1126408229400379</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32089.37567355263</v>
+      </c>
+      <c r="E7">
         <v>26275.61836716073</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>713.6287144685042</v>
-      </c>
-      <c r="F7">
-        <v>32089.37567355263</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1400.43395897955</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1744783322298665</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34087.22788302524</v>
+      </c>
+      <c r="E7">
         <v>32248.59572741574</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1105.396291343593</v>
-      </c>
-      <c r="F7">
-        <v>34087.22788302524</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1718.780808695233</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.265583804949176</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35864.52703935996</v>
+      </c>
+      <c r="E7">
         <v>38940.842374963</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1682.589174711783</v>
-      </c>
-      <c r="F7">
-        <v>35864.52703935996</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2075.463164791766</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3702916656954275</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37195.13356377051</v>
+      </c>
+      <c r="E7">
         <v>46308.4807199721</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2345.959115633394</v>
-      </c>
-      <c r="F7">
-        <v>37195.13356377051</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2468.142446080383</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.5196279143497045</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40009.29000633427</v>
+      </c>
+      <c r="E7">
         <v>54304.57272759708</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3292.06934786626</v>
-      </c>
-      <c r="F7">
-        <v>40009.29000633427</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2894.316956233804</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.6374024945259262</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41247.80708219746</v>
+      </c>
+      <c r="E7">
         <v>62908.77069089798</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4038.222652276739</v>
-      </c>
-      <c r="F7">
-        <v>41247.80708219746</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3352.902206225443</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.7338449058919905</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40279.40961855585</v>
+      </c>
+      <c r="E7">
         <v>72173.7256567342</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4649.227368391465</v>
-      </c>
-      <c r="F7">
-        <v>40279.40961855585</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3846.704383638302</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.086107456778286</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41037.80761925348</v>
+      </c>
+      <c r="E7">
         <v>82289.07382528491</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6880.964182656419</v>
-      </c>
-      <c r="F7">
-        <v>41037.80761925348</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4385.830690170616</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.794221622616025</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41311.04447549479</v>
+      </c>
+      <c r="E7">
         <v>93659.01005309254</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11367.1760965442</v>
-      </c>
-      <c r="F7">
-        <v>41311.04447549479</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4991.82384254316</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0002986425928911142</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.59170080352942E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.630050888771574</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>42426.48516152241</v>
+      </c>
+      <c r="E7">
         <v>106981.8754748005</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16662.51884310117</v>
-      </c>
-      <c r="F7">
-        <v>42426.48516152241</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5701.903921602032</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.529879262097125</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44481.49507849747</v>
+      </c>
+      <c r="E7">
         <v>123312.8135418418</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22363.32383136401</v>
-      </c>
-      <c r="F7">
-        <v>44481.49507849747</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6572.307804452605</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.688572243791097</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44227.93251394531</v>
+      </c>
+      <c r="E7">
         <v>144085.8588581253</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23368.71304608706</v>
-      </c>
-      <c r="F7">
-        <v>44227.93251394531</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7679.466451904369</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.198638733481502</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41434.09167117227</v>
+      </c>
+      <c r="E7">
         <v>171071.7926342773</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20264.7706918715</v>
-      </c>
-      <c r="F7">
-        <v>41434.09167117227</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9117.758694804696</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.099186182261919</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37318.08233880616</v>
+      </c>
+      <c r="E7">
         <v>206256.1009697058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19634.69542763783</v>
-      </c>
-      <c r="F7">
-        <v>37318.08233880616</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10993.00667289693</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.860694937658475</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36939.7520916568</v>
+      </c>
+      <c r="E7">
         <v>251637.323674372</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18123.74943260592</v>
-      </c>
-      <c r="F7">
-        <v>36939.7520916568</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>13411.72826062776</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.511610094196546</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43075.59720472623</v>
+      </c>
+      <c r="E7">
         <v>308965.6616497314</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15912.14478006544</v>
-      </c>
-      <c r="F7">
-        <v>43075.59720472623</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>16467.20540261921</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.169262200621023</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>58976.27730720813</v>
+      </c>
+      <c r="E7">
         <v>379456.939025177</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13743.22164175213</v>
-      </c>
-      <c r="F7">
-        <v>58976.27730720813</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>20224.23891060314</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.474774048235195</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91853.76435772151</v>
+      </c>
+      <c r="E7">
         <v>463520.7116849115</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15678.772371738</v>
-      </c>
-      <c r="F7">
-        <v>91853.76435772151</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>24704.65723254689</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.858894785949049</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>141007.6934147557</v>
+      </c>
+      <c r="E7">
         <v>560533.1046350482</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24447.78059577896</v>
-      </c>
-      <c r="F7">
-        <v>141007.6934147557</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>29875.20917278351</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.003602462049461411</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0001920034809268689</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.498374720100432</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>198602.8466802466</v>
+      </c>
+      <c r="E7">
         <v>668672.6732884035</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34834.60064261201</v>
-      </c>
-      <c r="F7">
-        <v>198602.8466802466</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>35638.81565143567</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.687438015226009</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>279351.1120582743</v>
+      </c>
+      <c r="E7">
         <v>784832.5333535109</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48703.27084952491</v>
-      </c>
-      <c r="F7">
-        <v>279351.1120582743</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>41829.88641644569</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.94410183457745</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>397869.7100076968</v>
+      </c>
+      <c r="E7">
         <v>904629.7425250326</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69335.65575403701</v>
-      </c>
-      <c r="F7">
-        <v>397869.7100076968</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48214.82006750116</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.21625170466442</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>480458.326255694</v>
+      </c>
+      <c r="E7">
         <v>1022546.744783522</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83730.71563151234</v>
-      </c>
-      <c r="F7">
-        <v>480458.326255694</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>54499.54273306711</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.49166939967799</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>491676.1770350056</v>
+      </c>
+      <c r="E7">
         <v>1132243.568210693</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85475.6067864628</v>
-      </c>
-      <c r="F7">
-        <v>491676.1770350056</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60346.14754262672</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.32293132616881</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>487320.6670318862</v>
+      </c>
+      <c r="E7">
         <v>1227059.243538205</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84406.57753634489</v>
-      </c>
-      <c r="F7">
-        <v>487320.6670318862</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65399.61915713987</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.98362482572299</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>477225.4233377089</v>
+      </c>
+      <c r="E7">
         <v>1300675.18434767</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82256.9229492788</v>
-      </c>
-      <c r="F7">
-        <v>477225.4233377089</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69323.19050724937</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.50146679266544</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>460778.0371874492</v>
+      </c>
+      <c r="E7">
         <v>1347855.973338817</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>79202.24163285509</v>
-      </c>
-      <c r="F7">
-        <v>460778.0371874492</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71837.82510847459</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.12749004020808</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>446430.9164261639</v>
+      </c>
+      <c r="E7">
         <v>1365137.244582033</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76832.93588622256</v>
-      </c>
-      <c r="F7">
-        <v>446430.9164261639</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>72758.87970613089</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.81896376238032</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>433346.9173946391</v>
+      </c>
+      <c r="E7">
         <v>1351318.478152372</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74878.28742681647</v>
-      </c>
-      <c r="F7">
-        <v>433346.9173946391</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>72022.36916967516</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01987112029069135</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.001059087982980885</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.93519234842674</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>399335.6809946179</v>
+      </c>
+      <c r="E7">
         <v>1307652.254871869</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69279.21027554743</v>
-      </c>
-      <c r="F7">
-        <v>399335.6809946179</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69695.05336351979</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.780720730015597</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>319494.0512503216</v>
+      </c>
+      <c r="E7">
         <v>1237695.363758784</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55629.69341944213</v>
-      </c>
-      <c r="F7">
-        <v>319494.0512503216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65966.50149423849</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.38991499715167</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>193219.097417734</v>
+      </c>
+      <c r="E7">
         <v>1146876.557619885</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34147.46101916717</v>
-      </c>
-      <c r="F7">
-        <v>193219.097417734</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61126.05441308239</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.250483317859917</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>104604.6960916133</v>
+      </c>
+      <c r="E7">
         <v>1041903.394126709</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20593.22873342734</v>
-      </c>
-      <c r="F7">
-        <v>104604.6960916133</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55531.21052080367</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.449474644893349</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91017.41599704477</v>
+      </c>
+      <c r="E7">
         <v>930143.4745320653</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21853.92553228546</v>
-      </c>
-      <c r="F7">
-        <v>91017.41599704477</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49574.64712175641</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.979548370816238</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>86899.81856767983</v>
+      </c>
+      <c r="E7">
         <v>819066.7510103034</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25212.17364989064</v>
-      </c>
-      <c r="F7">
-        <v>86899.81856767983</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43654.49660432954</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.184198933631273</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>76507.99894802012</v>
+      </c>
+      <c r="E7">
         <v>715757.5916000414</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26508.72417433677</v>
-      </c>
-      <c r="F7">
-        <v>76507.99894802012</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38148.34055159205</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.861387607943612</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>58971.16201228619</v>
+      </c>
+      <c r="E7">
         <v>626455.2188515422</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24463.57370975795</v>
-      </c>
-      <c r="F7">
-        <v>58971.16201228619</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>33388.71610938478</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.356575505749111</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45695.53644652903</v>
+      </c>
+      <c r="E7">
         <v>556100.2864053171</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21265.36899024009</v>
-      </c>
-      <c r="F7">
-        <v>45695.53644652903</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>29638.94949294825</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.071670552620661</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43655.73089096153</v>
+      </c>
+      <c r="E7">
         <v>507940.4378894792</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19460.37191955111</v>
-      </c>
-      <c r="F7">
-        <v>43655.73089096153</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>27072.13312431113</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.07785380623417676</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.004149440464640772</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.873527396631256</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>47467.39950517192</v>
+      </c>
+      <c r="E7">
         <v>483313.7374942051</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18205.04865398226</v>
-      </c>
-      <c r="F7">
-        <v>47467.39950517192</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>25759.58294759444</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.726394541821381</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>59059.4848912661</v>
+      </c>
+      <c r="E7">
         <v>481719.2734281198</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17272.89788223278</v>
-      </c>
-      <c r="F7">
-        <v>59059.4848912661</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>25674.60144141953</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.818105138028885</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81803.38849273339</v>
+      </c>
+      <c r="E7">
         <v>501186.6780526017</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17853.92448667743</v>
-      </c>
-      <c r="F7">
-        <v>81803.38849273339</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>26712.172247494</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.425119874455993</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>118583.8246132798</v>
+      </c>
+      <c r="E7">
         <v>538826.890150387</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21699.62744510229</v>
-      </c>
-      <c r="F7">
-        <v>118583.8246132798</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>28718.31461523411</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.694880755515121</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>170290.3801537561</v>
+      </c>
+      <c r="E7">
         <v>591370.8277126242</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29744.11612675002</v>
-      </c>
-      <c r="F7">
-        <v>170290.3801537561</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>31518.7935030164</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.50368469200501</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>236113.3303225511</v>
+      </c>
+      <c r="E7">
         <v>655532.6450982334</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41203.67753824635</v>
-      </c>
-      <c r="F7">
-        <v>236113.3303225511</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>34938.48040366614</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.666466642834317</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>314721.7396440517</v>
+      </c>
+      <c r="E7">
         <v>728147.513171744</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54905.84397276904</v>
-      </c>
-      <c r="F7">
-        <v>314721.7396440517</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38808.69672953803</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.91163293153006</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>396806.9634672524</v>
+      </c>
+      <c r="E7">
         <v>806150.291215719</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69129.95109974619</v>
-      </c>
-      <c r="F7">
-        <v>396806.9634672524</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42966.07707130963</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.60155936602406</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>458828.2341471848</v>
+      </c>
+      <c r="E7">
         <v>886508.2000280689</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>79836.37171633098</v>
-      </c>
-      <c r="F7">
-        <v>458828.2341471848</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47248.98081884025</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.28801581606625</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>484804.8728197303</v>
+      </c>
+      <c r="E7">
         <v>966188.6353630356</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84185.37255986169</v>
-      </c>
-      <c r="F7">
-        <v>484804.8728197303</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51495.77668678537</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.070074593111169E-17</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.813595142925696E-11</v>
+      </c>
+      <c r="E7">
         <v>0.2688312654957137</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.311482491141092E-13</v>
-      </c>
-      <c r="F7">
-        <v>2.813595142925696E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01432812838788107</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.29231166838581</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>486311.5714463885</v>
+      </c>
+      <c r="E7">
         <v>1042182.585984301</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84212.58865690662</v>
-      </c>
-      <c r="F7">
-        <v>486311.5714463885</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55546.09084647208</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.13921498317968</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>481775.9426465917</v>
+      </c>
+      <c r="E7">
         <v>1111568.14845583</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83242.65441990977</v>
-      </c>
-      <c r="F7">
-        <v>481775.9426465917</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59244.19212767615</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.09275602532672</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>479950.654396615</v>
+      </c>
+      <c r="E7">
         <v>1171599.541428912</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82948.31667003554</v>
-      </c>
-      <c r="F7">
-        <v>479950.654396615</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62443.73628871561</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.16993528046093</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>481056.1568703402</v>
+      </c>
+      <c r="E7">
         <v>1219821.669298953</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83437.28089443913</v>
-      </c>
-      <c r="F7">
-        <v>481056.1568703402</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65013.87201301358</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.82611920003738</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>466144.9073864844</v>
+      </c>
+      <c r="E7">
         <v>1254214.792597617</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81259.05615244785</v>
-      </c>
-      <c r="F7">
-        <v>466144.9073864844</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66846.95152991722</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.58628380782152</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>418486.2621833248</v>
+      </c>
+      <c r="E7">
         <v>1273363.780462801</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73404.15848741072</v>
-      </c>
-      <c r="F7">
-        <v>418486.2621833248</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67867.55140740701</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.613323174920785</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>342950.4982429301</v>
+      </c>
+      <c r="E7">
         <v>1276630.695285443</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60904.59284677778</v>
-      </c>
-      <c r="F7">
-        <v>342950.4982429301</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68041.67094266554</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.367615860567547</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>254424.4019357995</v>
+      </c>
+      <c r="E7">
         <v>1264296.979667357</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46677.05808642248</v>
-      </c>
-      <c r="F7">
-        <v>254424.4019357995</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67384.31042118868</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.767944863362798</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>184191.802382837</v>
+      </c>
+      <c r="E7">
         <v>1237636.608853598</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36542.44500821844</v>
-      </c>
-      <c r="F7">
-        <v>184191.802382837</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65963.3699841317</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.304466443646988</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>150324.0734079214</v>
+      </c>
+      <c r="E7">
         <v>1198886.718244981</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33606.1071849254</v>
-      </c>
-      <c r="F7">
-        <v>150324.0734079214</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63898.08413788603</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.379419703525985E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.388994879612172E-09</v>
+      </c>
+      <c r="E7">
         <v>0.7940382046187068</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.739225123237919E-12</v>
-      </c>
-      <c r="F7">
-        <v>1.388994879612172E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0423205289000911</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.434589640756445</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>137318.8600170476</v>
+      </c>
+      <c r="E7">
         <v>1151099.208269262</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34430.49436048062</v>
-      </c>
-      <c r="F7">
-        <v>137318.8600170476</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61351.11261280435</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.460994480173002</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>125468.5411035358</v>
+      </c>
+      <c r="E7">
         <v>1097883.889112028</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34597.78052829045</v>
-      </c>
-      <c r="F7">
-        <v>125468.5411035358</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58514.85052966853</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.196593074981943</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>111449.4132900117</v>
+      </c>
+      <c r="E7">
         <v>1043082.700557202</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32922.68237146499</v>
-      </c>
-      <c r="F7">
-        <v>111449.4132900117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55594.0650177075</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.81476732762785</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>101232.7055843949</v>
+      </c>
+      <c r="E7">
         <v>990433.0216362795</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30503.64982071448</v>
-      </c>
-      <c r="F7">
-        <v>101232.7055843949</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52787.95034288104</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.528736162896665</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>99795.6797593205</v>
+      </c>
+      <c r="E7">
         <v>943276.6748683488</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28691.51770859643</v>
-      </c>
-      <c r="F7">
-        <v>99795.6797593205</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50274.61845959559</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.381225824186648</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>106762.3608690791</v>
+      </c>
+      <c r="E7">
         <v>904350.7172474343</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27756.97541179095</v>
-      </c>
-      <c r="F7">
-        <v>106762.3608690791</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48199.9486201882</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.396005438800201</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>122186.0806900432</v>
+      </c>
+      <c r="E7">
         <v>875667.9902219276</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27850.61071293415</v>
-      </c>
-      <c r="F7">
-        <v>122186.0806900432</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>46671.22094568131</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.692408734771655</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>148133.8846029523</v>
+      </c>
+      <c r="E7">
         <v>858473.9991234669</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29728.45479776418</v>
-      </c>
-      <c r="F7">
-        <v>148133.8846029523</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>45754.8181920635</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.454230805366005</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>187570.9768773552</v>
+      </c>
+      <c r="E7">
         <v>853259.336785217</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34554.9297000417</v>
-      </c>
-      <c r="F7">
-        <v>187570.9768773552</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>45476.88790242954</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.756575086620296</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>241152.9715525435</v>
+      </c>
+      <c r="E7">
         <v>859810.6694760189</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42805.84842532172</v>
-      </c>
-      <c r="F7">
-        <v>241152.9715525435</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>45826.05984763629</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
